--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Uniform.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter04/Uniform.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D2ABEB-C242-43C4-941A-025402E2DDC6}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0453D29E-4D3D-46DA-9504-809143C75D02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="3165" windowWidth="21435" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -398,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,51 +408,87 @@
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>1/B5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <f>B4-B3+1</f>
+        <v>15</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>1/B5+1/B5</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F5">
+        <f>2*E3</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>E3*E3</f>
+        <v>4.4444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RAND()</f>
+        <v>0.10177582818249575</v>
       </c>
     </row>
   </sheetData>
